--- a/Code/Results/Cases/Case_5_190/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_190/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>22.2600088709343</v>
+        <v>13.27156410718331</v>
       </c>
       <c r="C2">
-        <v>15.84008205717899</v>
+        <v>9.625922670097504</v>
       </c>
       <c r="D2">
-        <v>3.157924967361569</v>
+        <v>3.575400863928837</v>
       </c>
       <c r="E2">
-        <v>30.17881177137798</v>
+        <v>16.58294073349141</v>
       </c>
       <c r="F2">
-        <v>20.05587573364926</v>
+        <v>20.83286531184558</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>10.73769482147364</v>
+        <v>15.75157488290232</v>
       </c>
       <c r="O2">
-        <v>15.13932266749827</v>
+        <v>18.29973775294018</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.78252597193607</v>
+        <v>12.60019494913002</v>
       </c>
       <c r="C3">
-        <v>14.88954618449247</v>
+        <v>9.134130970340939</v>
       </c>
       <c r="D3">
-        <v>3.081275736328509</v>
+        <v>3.549436474145852</v>
       </c>
       <c r="E3">
-        <v>27.96793612846609</v>
+        <v>15.63564054750957</v>
       </c>
       <c r="F3">
-        <v>19.06068502039497</v>
+        <v>20.70145259169839</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>10.88983171388955</v>
+        <v>15.80189921768247</v>
       </c>
       <c r="O3">
-        <v>14.57377029741842</v>
+        <v>18.27781497472204</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.82401599042049</v>
+        <v>12.17052012960297</v>
       </c>
       <c r="C4">
-        <v>14.27572126850666</v>
+        <v>8.816595894821873</v>
       </c>
       <c r="D4">
-        <v>3.032940559443112</v>
+        <v>3.533264112081607</v>
       </c>
       <c r="E4">
-        <v>26.54807297788067</v>
+        <v>15.02879000762039</v>
       </c>
       <c r="F4">
-        <v>18.44941436218464</v>
+        <v>20.62864604092896</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>10.98677394231495</v>
+        <v>15.83465806696178</v>
       </c>
       <c r="O4">
-        <v>14.23707598388419</v>
+        <v>18.27090897552302</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>19.42042497758046</v>
+        <v>11.99124259529006</v>
       </c>
       <c r="C5">
-        <v>14.01802300982496</v>
+        <v>8.683362882070044</v>
       </c>
       <c r="D5">
-        <v>3.012943420785761</v>
+        <v>3.526619002687049</v>
       </c>
       <c r="E5">
-        <v>25.95340542812299</v>
+        <v>14.77542321465228</v>
       </c>
       <c r="F5">
-        <v>18.20057869852309</v>
+        <v>20.60098457902129</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>11.02716020170396</v>
+        <v>15.84847605398079</v>
       </c>
       <c r="O5">
-        <v>14.10263916668201</v>
+        <v>18.26974068951908</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>19.35262217493576</v>
+        <v>11.96122788212026</v>
       </c>
       <c r="C6">
-        <v>13.97477725047149</v>
+        <v>8.661010710042822</v>
       </c>
       <c r="D6">
-        <v>3.009605388015669</v>
+        <v>3.525512372818075</v>
       </c>
       <c r="E6">
-        <v>25.85368071771331</v>
+        <v>14.7329940929246</v>
       </c>
       <c r="F6">
-        <v>18.15928580767028</v>
+        <v>20.59651335638493</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>11.03391940401731</v>
+        <v>15.85079884278382</v>
       </c>
       <c r="O6">
-        <v>14.08048665517925</v>
+        <v>18.26964600694011</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.81862572153914</v>
+        <v>12.16811896194693</v>
       </c>
       <c r="C7">
-        <v>14.27227640800527</v>
+        <v>8.814814476277427</v>
       </c>
       <c r="D7">
-        <v>3.032672059211803</v>
+        <v>3.533174711337349</v>
       </c>
       <c r="E7">
-        <v>26.54011859661368</v>
+        <v>15.02539720001694</v>
       </c>
       <c r="F7">
-        <v>18.44605695973847</v>
+        <v>20.62826482820009</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>10.98731504310935</v>
+        <v>15.83484252308212</v>
       </c>
       <c r="O7">
-        <v>14.23525155774575</v>
+        <v>18.27088655959344</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.76117288854332</v>
+        <v>13.04381155157603</v>
       </c>
       <c r="C8">
-        <v>15.51861576830052</v>
+        <v>9.459628927021098</v>
       </c>
       <c r="D8">
-        <v>3.131771758109875</v>
+        <v>3.566497970554614</v>
       </c>
       <c r="E8">
-        <v>29.42921272950854</v>
+        <v>16.2616876183642</v>
       </c>
       <c r="F8">
-        <v>19.71295363021038</v>
+        <v>20.78593527466846</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>10.78941495745881</v>
+        <v>15.76854131182965</v>
       </c>
       <c r="O8">
-        <v>14.94219580552811</v>
+        <v>18.29081754348761</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>25.16751903179462</v>
+        <v>14.61513578123397</v>
       </c>
       <c r="C9">
-        <v>17.72289304272179</v>
+        <v>10.597723095996</v>
       </c>
       <c r="D9">
-        <v>3.315220366484966</v>
+        <v>3.629883714108387</v>
       </c>
       <c r="E9">
-        <v>34.61834634032342</v>
+        <v>18.59154783222799</v>
       </c>
       <c r="F9">
-        <v>22.1845183149269</v>
+        <v>21.15632047419537</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>10.42969347378198</v>
+        <v>15.6532389882968</v>
       </c>
       <c r="O9">
-        <v>16.40778316840946</v>
+        <v>18.38192759954019</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.43120842838277</v>
+        <v>15.6726344556512</v>
       </c>
       <c r="C10">
-        <v>19.19740237541858</v>
+        <v>11.35391702605415</v>
       </c>
       <c r="D10">
-        <v>3.44241482671907</v>
+        <v>3.675080027525733</v>
       </c>
       <c r="E10">
-        <v>38.16904202279473</v>
+        <v>20.24807268840485</v>
       </c>
       <c r="F10">
-        <v>23.98208124132388</v>
+        <v>21.46368247961469</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>10.18333490009367</v>
+        <v>15.57744171402299</v>
       </c>
       <c r="O10">
-        <v>17.52823966628995</v>
+        <v>18.48048428928114</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.41081329049677</v>
+        <v>16.13143972783831</v>
       </c>
       <c r="C11">
-        <v>19.83735335941768</v>
+        <v>11.68014848791492</v>
       </c>
       <c r="D11">
-        <v>3.49846239186571</v>
+        <v>3.695305875644059</v>
       </c>
       <c r="E11">
-        <v>39.73480865641623</v>
+        <v>20.95931675908041</v>
       </c>
       <c r="F11">
-        <v>24.90569929355672</v>
+        <v>21.61064990407018</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>10.07534778437943</v>
+        <v>15.5448843084209</v>
       </c>
       <c r="O11">
-        <v>18.07926723418235</v>
+        <v>18.53212519522911</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.77470525377688</v>
+        <v>16.30189895022955</v>
       </c>
       <c r="C12">
-        <v>20.07532954631244</v>
+        <v>11.80110409868711</v>
       </c>
       <c r="D12">
-        <v>3.519413232073433</v>
+        <v>3.702913747811815</v>
       </c>
       <c r="E12">
-        <v>40.32131007741611</v>
+        <v>21.22259862994759</v>
       </c>
       <c r="F12">
-        <v>25.25642967096614</v>
+        <v>21.66728315563908</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>10.03506417142246</v>
+        <v>15.53283142729869</v>
       </c>
       <c r="O12">
-        <v>18.34528392130995</v>
+        <v>18.55265092800852</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.69664619589967</v>
+        <v>16.26533451519838</v>
       </c>
       <c r="C13">
-        <v>20.02426968042153</v>
+        <v>11.77516929915695</v>
       </c>
       <c r="D13">
-        <v>3.514913422302958</v>
+        <v>3.701277584070588</v>
       </c>
       <c r="E13">
-        <v>40.19527002756478</v>
+        <v>21.16616473536934</v>
       </c>
       <c r="F13">
-        <v>25.18102436857792</v>
+        <v>21.65504337810581</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>10.04371250438515</v>
+        <v>15.53541497004315</v>
       </c>
       <c r="O13">
-        <v>18.2880840378786</v>
+        <v>18.54818733690996</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.44089154536806</v>
+        <v>16.14552965839578</v>
       </c>
       <c r="C14">
-        <v>19.85701870185493</v>
+        <v>11.69015143932472</v>
       </c>
       <c r="D14">
-        <v>3.500191569669543</v>
+        <v>3.695932824254285</v>
       </c>
       <c r="E14">
-        <v>39.78318485949057</v>
+        <v>20.98109818846065</v>
       </c>
       <c r="F14">
-        <v>24.93461325926223</v>
+        <v>21.61528980001895</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>10.07202128806021</v>
+        <v>15.54388718474472</v>
       </c>
       <c r="O14">
-        <v>18.10119409047786</v>
+        <v>18.53379446519936</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.28331930973562</v>
+        <v>16.0717164097328</v>
       </c>
       <c r="C15">
-        <v>19.75400734039687</v>
+        <v>11.63773871956856</v>
       </c>
       <c r="D15">
-        <v>3.491138097368156</v>
+        <v>3.692652241612172</v>
       </c>
       <c r="E15">
-        <v>39.52995678812178</v>
+        <v>20.86695260535277</v>
       </c>
       <c r="F15">
-        <v>24.78329363412437</v>
+        <v>21.59106573389948</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>10.08944122720657</v>
+        <v>15.54911257279558</v>
       </c>
       <c r="O15">
-        <v>17.98644768202006</v>
+        <v>18.52510451503666</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.36619207337529</v>
+        <v>15.6421954096912</v>
       </c>
       <c r="C16">
-        <v>19.15496577325097</v>
+        <v>11.33223713789318</v>
       </c>
       <c r="D16">
-        <v>3.438714398246276</v>
+        <v>3.673751224557625</v>
       </c>
       <c r="E16">
-        <v>38.06577730335584</v>
+        <v>20.2007426243093</v>
       </c>
       <c r="F16">
-        <v>23.92886111782924</v>
+        <v>21.45421759340264</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>10.19047602840575</v>
+        <v>15.57960805995792</v>
       </c>
       <c r="O16">
-        <v>17.49451930952803</v>
+        <v>18.47724573371858</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.79081915129893</v>
+        <v>15.37293592415137</v>
       </c>
       <c r="C17">
-        <v>18.77962700106067</v>
+        <v>11.14025079965935</v>
       </c>
       <c r="D17">
-        <v>3.406080326716003</v>
+        <v>3.662068202999523</v>
       </c>
       <c r="E17">
-        <v>37.15534681253502</v>
+        <v>19.78123040252719</v>
       </c>
       <c r="F17">
-        <v>23.46189897503838</v>
+        <v>21.37206294210545</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>10.25351746060466</v>
+        <v>15.59880815061481</v>
       </c>
       <c r="O17">
-        <v>17.20001109483822</v>
+        <v>18.44962397603635</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.45514886850929</v>
+        <v>15.21597382962659</v>
       </c>
       <c r="C18">
-        <v>18.56083669050006</v>
+        <v>11.02815435598203</v>
       </c>
       <c r="D18">
-        <v>3.387139984159483</v>
+        <v>3.655317169047275</v>
       </c>
       <c r="E18">
-        <v>36.62698926031677</v>
+        <v>19.53595291292994</v>
       </c>
       <c r="F18">
-        <v>23.19285001522648</v>
+        <v>21.32548549387339</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>10.2901599767436</v>
+        <v>15.61003258807859</v>
       </c>
       <c r="O18">
-        <v>17.03146762375574</v>
+        <v>18.43437799929937</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>26.34067980807583</v>
+        <v>15.16247269633603</v>
       </c>
       <c r="C19">
-        <v>18.48625716241173</v>
+        <v>10.98991434969025</v>
       </c>
       <c r="D19">
-        <v>3.380698297933936</v>
+        <v>3.653026111751265</v>
       </c>
       <c r="E19">
-        <v>36.44726924812804</v>
+        <v>19.45222066482444</v>
       </c>
       <c r="F19">
-        <v>23.10167595459542</v>
+        <v>21.30983264517468</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>10.30263164454064</v>
+        <v>15.61386410593209</v>
       </c>
       <c r="O19">
-        <v>16.97454820786151</v>
+        <v>18.42932634707763</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.85255718485883</v>
+        <v>15.40181611141165</v>
       </c>
       <c r="C20">
-        <v>18.81988268870231</v>
+        <v>11.16086122572586</v>
       </c>
       <c r="D20">
-        <v>3.409571977002073</v>
+        <v>3.663315139925944</v>
       </c>
       <c r="E20">
-        <v>37.25274560519673</v>
+        <v>19.82630039271546</v>
       </c>
       <c r="F20">
-        <v>23.51165620369923</v>
+        <v>21.38073884805473</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>10.24676683475958</v>
+        <v>15.59674553471742</v>
       </c>
       <c r="O20">
-        <v>17.23127414296534</v>
+        <v>18.45249803935712</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.5162033085317</v>
+        <v>16.18080883948502</v>
       </c>
       <c r="C21">
-        <v>19.90626202643486</v>
+        <v>11.71519347866379</v>
       </c>
       <c r="D21">
-        <v>3.504523238606629</v>
+        <v>3.697504124719239</v>
       </c>
       <c r="E21">
-        <v>39.90439253161738</v>
+        <v>21.03562066414173</v>
       </c>
       <c r="F21">
-        <v>25.00707026347867</v>
+        <v>21.62694018897354</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>10.06368959737479</v>
+        <v>15.54139120701363</v>
       </c>
       <c r="O21">
-        <v>18.15614436761511</v>
+        <v>18.53799573908935</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.56240370350468</v>
+        <v>16.67077820928148</v>
       </c>
       <c r="C22">
-        <v>20.59090964409171</v>
+        <v>12.06242850951304</v>
       </c>
       <c r="D22">
-        <v>3.564982588907919</v>
+        <v>3.719548642215879</v>
       </c>
       <c r="E22">
-        <v>41.60036568546251</v>
+        <v>21.79072833981449</v>
       </c>
       <c r="F22">
-        <v>26.0225076214501</v>
+        <v>21.79353469548956</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>9.947599460112396</v>
+        <v>15.50682184279566</v>
       </c>
       <c r="O22">
-        <v>18.92665192211324</v>
+        <v>18.59952471419356</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>29.00773292315994</v>
+        <v>16.41104692461807</v>
       </c>
       <c r="C23">
-        <v>20.22779304705238</v>
+        <v>11.87848722027909</v>
       </c>
       <c r="D23">
-        <v>3.532864074306461</v>
+        <v>3.70781154451398</v>
       </c>
       <c r="E23">
-        <v>40.69832738690488</v>
+        <v>21.39092751753035</v>
       </c>
       <c r="F23">
-        <v>25.48208465529085</v>
+        <v>21.70411604581724</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>10.00922483199273</v>
+        <v>15.52512524655821</v>
       </c>
       <c r="O23">
-        <v>18.51648358898862</v>
+        <v>18.56617170026103</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.82466063337139</v>
+        <v>15.3887661042717</v>
       </c>
       <c r="C24">
-        <v>18.80169245131057</v>
+        <v>11.15154861042544</v>
       </c>
       <c r="D24">
-        <v>3.407993957196322</v>
+        <v>3.6627515063501</v>
       </c>
       <c r="E24">
-        <v>37.20872704571332</v>
+        <v>19.80593700602815</v>
       </c>
       <c r="F24">
-        <v>23.48916278552711</v>
+        <v>21.37681442910545</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>10.24981755101344</v>
+        <v>15.59767746377773</v>
       </c>
       <c r="O24">
-        <v>17.21713771014786</v>
+        <v>18.45119669941386</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>24.2885016454371</v>
+        <v>14.20659368664019</v>
       </c>
       <c r="C25">
-        <v>17.15219419995547</v>
+        <v>10.30371099249511</v>
       </c>
       <c r="D25">
-        <v>3.266862000199853</v>
+        <v>3.612964612971913</v>
       </c>
       <c r="E25">
-        <v>33.26277018965648</v>
+        <v>17.9437629592119</v>
       </c>
       <c r="F25">
-        <v>21.51857495215078</v>
+        <v>21.04976934090907</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>10.52391495628248</v>
+        <v>15.68286184824613</v>
       </c>
       <c r="O25">
-        <v>16.00337541544205</v>
+        <v>18.35171279602193</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_190/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_190/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.27156410718331</v>
+        <v>22.26000887093432</v>
       </c>
       <c r="C2">
-        <v>9.625922670097504</v>
+        <v>15.84008205717913</v>
       </c>
       <c r="D2">
-        <v>3.575400863928837</v>
+        <v>3.157924967361558</v>
       </c>
       <c r="E2">
-        <v>16.58294073349141</v>
+        <v>30.178811771378</v>
       </c>
       <c r="F2">
-        <v>20.83286531184558</v>
+        <v>20.05587573364919</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>15.75157488290232</v>
+        <v>10.73769482147355</v>
       </c>
       <c r="O2">
-        <v>18.29973775294018</v>
+        <v>15.1393226674982</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.60019494913002</v>
+        <v>20.78252597193607</v>
       </c>
       <c r="C3">
-        <v>9.134130970340939</v>
+        <v>14.88954618449256</v>
       </c>
       <c r="D3">
-        <v>3.549436474145852</v>
+        <v>3.081275736328607</v>
       </c>
       <c r="E3">
-        <v>15.63564054750957</v>
+        <v>27.96793612846617</v>
       </c>
       <c r="F3">
-        <v>20.70145259169839</v>
+        <v>19.06068502039493</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>15.80189921768247</v>
+        <v>10.88983171388957</v>
       </c>
       <c r="O3">
-        <v>18.27781497472204</v>
+        <v>14.57377029741839</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.17052012960297</v>
+        <v>19.82401599042044</v>
       </c>
       <c r="C4">
-        <v>8.816595894821873</v>
+        <v>14.27572126850688</v>
       </c>
       <c r="D4">
-        <v>3.533264112081607</v>
+        <v>3.03294055944317</v>
       </c>
       <c r="E4">
-        <v>15.02879000762039</v>
+        <v>26.54807297788069</v>
       </c>
       <c r="F4">
-        <v>20.62864604092896</v>
+        <v>18.44941436218453</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>15.83465806696178</v>
+        <v>10.98677394231489</v>
       </c>
       <c r="O4">
-        <v>18.27090897552302</v>
+        <v>14.23707598388412</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.99124259529006</v>
+        <v>19.4204249775804</v>
       </c>
       <c r="C5">
-        <v>8.683362882070044</v>
+        <v>14.01802300982518</v>
       </c>
       <c r="D5">
-        <v>3.526619002687049</v>
+        <v>3.012943420785717</v>
       </c>
       <c r="E5">
-        <v>14.77542321465228</v>
+        <v>25.95340542812301</v>
       </c>
       <c r="F5">
-        <v>20.60098457902129</v>
+        <v>18.20057869852308</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>15.84847605398079</v>
+        <v>11.02716020170399</v>
       </c>
       <c r="O5">
-        <v>18.26974068951908</v>
+        <v>14.10263916668199</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.96122788212026</v>
+        <v>19.35262217493579</v>
       </c>
       <c r="C6">
-        <v>8.661010710042822</v>
+        <v>13.97477725047154</v>
       </c>
       <c r="D6">
-        <v>3.525512372818075</v>
+        <v>3.009605388015881</v>
       </c>
       <c r="E6">
-        <v>14.7329940929246</v>
+        <v>25.85368071771336</v>
       </c>
       <c r="F6">
-        <v>20.59651335638493</v>
+        <v>18.15928580767024</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>15.85079884278382</v>
+        <v>11.03391940401731</v>
       </c>
       <c r="O6">
-        <v>18.26964600694011</v>
+        <v>14.08048665517926</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.16811896194693</v>
+        <v>19.81862572153922</v>
       </c>
       <c r="C7">
-        <v>8.814814476277427</v>
+        <v>14.27227640800545</v>
       </c>
       <c r="D7">
-        <v>3.533174711337349</v>
+        <v>3.032672059211934</v>
       </c>
       <c r="E7">
-        <v>15.02539720001694</v>
+        <v>26.54011859661372</v>
       </c>
       <c r="F7">
-        <v>20.62826482820009</v>
+        <v>18.4460569597384</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>15.83484252308212</v>
+        <v>10.98731504310935</v>
       </c>
       <c r="O7">
-        <v>18.27088655959344</v>
+        <v>14.23525155774567</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.04381155157603</v>
+        <v>21.76117288854334</v>
       </c>
       <c r="C8">
-        <v>9.459628927021098</v>
+        <v>15.51861576830058</v>
       </c>
       <c r="D8">
-        <v>3.566497970554614</v>
+        <v>3.131771758109836</v>
       </c>
       <c r="E8">
-        <v>16.2616876183642</v>
+        <v>29.4292127295086</v>
       </c>
       <c r="F8">
-        <v>20.78593527466846</v>
+        <v>19.71295363021034</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>15.76854131182965</v>
+        <v>10.78941495745881</v>
       </c>
       <c r="O8">
-        <v>18.29081754348761</v>
+        <v>14.94219580552807</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.61513578123397</v>
+        <v>25.16751903179463</v>
       </c>
       <c r="C9">
-        <v>10.597723095996</v>
+        <v>17.72289304272185</v>
       </c>
       <c r="D9">
-        <v>3.629883714108387</v>
+        <v>3.31522036648497</v>
       </c>
       <c r="E9">
-        <v>18.59154783222799</v>
+        <v>34.61834634032348</v>
       </c>
       <c r="F9">
-        <v>21.15632047419537</v>
+        <v>22.18451831492688</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>15.6532389882968</v>
+        <v>10.42969347378194</v>
       </c>
       <c r="O9">
-        <v>18.38192759954019</v>
+        <v>16.40778316840946</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.6726344556512</v>
+        <v>27.43120842838275</v>
       </c>
       <c r="C10">
-        <v>11.35391702605415</v>
+        <v>19.19740237541865</v>
       </c>
       <c r="D10">
-        <v>3.675080027525733</v>
+        <v>3.442414826719056</v>
       </c>
       <c r="E10">
-        <v>20.24807268840485</v>
+        <v>38.16904202279466</v>
       </c>
       <c r="F10">
-        <v>21.46368247961469</v>
+        <v>23.98208124132386</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>15.57744171402299</v>
+        <v>10.18333490009373</v>
       </c>
       <c r="O10">
-        <v>18.48048428928114</v>
+        <v>17.52823966628995</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.13143972783831</v>
+        <v>28.41081329049678</v>
       </c>
       <c r="C11">
-        <v>11.68014848791492</v>
+        <v>19.83735335941765</v>
       </c>
       <c r="D11">
-        <v>3.695305875644059</v>
+        <v>3.498462391865675</v>
       </c>
       <c r="E11">
-        <v>20.95931675908041</v>
+        <v>39.73480865641615</v>
       </c>
       <c r="F11">
-        <v>21.61064990407018</v>
+        <v>24.90569929355672</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>15.5448843084209</v>
+        <v>10.0753477843794</v>
       </c>
       <c r="O11">
-        <v>18.53212519522911</v>
+        <v>18.07926723418235</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.30189895022955</v>
+        <v>28.77470525377687</v>
       </c>
       <c r="C12">
-        <v>11.80110409868711</v>
+        <v>20.07532954631249</v>
       </c>
       <c r="D12">
-        <v>3.702913747811815</v>
+        <v>3.51941323207348</v>
       </c>
       <c r="E12">
-        <v>21.22259862994759</v>
+        <v>40.32131007741614</v>
       </c>
       <c r="F12">
-        <v>21.66728315563908</v>
+        <v>25.25642967096617</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>15.53283142729869</v>
+        <v>10.03506417142243</v>
       </c>
       <c r="O12">
-        <v>18.55265092800852</v>
+        <v>18.34528392130998</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.26533451519838</v>
+        <v>28.69664619589977</v>
       </c>
       <c r="C13">
-        <v>11.77516929915695</v>
+        <v>20.02426968042163</v>
       </c>
       <c r="D13">
-        <v>3.701277584070588</v>
+        <v>3.514913422302958</v>
       </c>
       <c r="E13">
-        <v>21.16616473536934</v>
+        <v>40.19527002756501</v>
       </c>
       <c r="F13">
-        <v>21.65504337810581</v>
+        <v>25.18102436857805</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>15.53541497004315</v>
+        <v>10.04371250438505</v>
       </c>
       <c r="O13">
-        <v>18.54818733690996</v>
+        <v>18.28808403787873</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.14552965839578</v>
+        <v>28.44089154536809</v>
       </c>
       <c r="C14">
-        <v>11.69015143932472</v>
+        <v>19.85701870185479</v>
       </c>
       <c r="D14">
-        <v>3.695932824254285</v>
+        <v>3.500191569669712</v>
       </c>
       <c r="E14">
-        <v>20.98109818846065</v>
+        <v>39.78318485949062</v>
       </c>
       <c r="F14">
-        <v>21.61528980001895</v>
+        <v>24.9346132592622</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>15.54388718474472</v>
+        <v>10.07202128806024</v>
       </c>
       <c r="O14">
-        <v>18.53379446519936</v>
+        <v>18.10119409047783</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.0717164097328</v>
+        <v>28.28331930973564</v>
       </c>
       <c r="C15">
-        <v>11.63773871956856</v>
+        <v>19.7540073403968</v>
       </c>
       <c r="D15">
-        <v>3.692652241612172</v>
+        <v>3.4911380973681</v>
       </c>
       <c r="E15">
-        <v>20.86695260535277</v>
+        <v>39.52995678812172</v>
       </c>
       <c r="F15">
-        <v>21.59106573389948</v>
+        <v>24.78329363412437</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>15.54911257279558</v>
+        <v>10.08944122720657</v>
       </c>
       <c r="O15">
-        <v>18.52510451503666</v>
+        <v>17.98644768202006</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.6421954096912</v>
+        <v>27.36619207337533</v>
       </c>
       <c r="C16">
-        <v>11.33223713789318</v>
+        <v>19.15496577325092</v>
       </c>
       <c r="D16">
-        <v>3.673751224557625</v>
+        <v>3.438714398246282</v>
       </c>
       <c r="E16">
-        <v>20.2007426243093</v>
+        <v>38.0657773033558</v>
       </c>
       <c r="F16">
-        <v>21.45421759340264</v>
+        <v>23.92886111782923</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>15.57960805995792</v>
+        <v>10.19047602840575</v>
       </c>
       <c r="O16">
-        <v>18.47724573371858</v>
+        <v>17.49451930952803</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.37293592415137</v>
+        <v>26.79081915129895</v>
       </c>
       <c r="C17">
-        <v>11.14025079965935</v>
+        <v>18.77962700106063</v>
       </c>
       <c r="D17">
-        <v>3.662068202999523</v>
+        <v>3.406080326716015</v>
       </c>
       <c r="E17">
-        <v>19.78123040252719</v>
+        <v>37.15534681253505</v>
       </c>
       <c r="F17">
-        <v>21.37206294210545</v>
+        <v>23.46189897503839</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>15.59880815061481</v>
+        <v>10.25351746060466</v>
       </c>
       <c r="O17">
-        <v>18.44962397603635</v>
+        <v>17.20001109483822</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.21597382962659</v>
+        <v>26.45514886850942</v>
       </c>
       <c r="C18">
-        <v>11.02815435598203</v>
+        <v>18.56083669049993</v>
       </c>
       <c r="D18">
-        <v>3.655317169047275</v>
+        <v>3.38713998415954</v>
       </c>
       <c r="E18">
-        <v>19.53595291292994</v>
+        <v>36.62698926031675</v>
       </c>
       <c r="F18">
-        <v>21.32548549387339</v>
+        <v>23.19285001522647</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>15.61003258807859</v>
+        <v>10.29015997674355</v>
       </c>
       <c r="O18">
-        <v>18.43437799929937</v>
+        <v>17.03146762375571</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.16247269633603</v>
+        <v>26.34067980807581</v>
       </c>
       <c r="C19">
-        <v>10.98991434969025</v>
+        <v>18.48625716241172</v>
       </c>
       <c r="D19">
-        <v>3.653026111751265</v>
+        <v>3.380698297934027</v>
       </c>
       <c r="E19">
-        <v>19.45222066482444</v>
+        <v>36.44726924812798</v>
       </c>
       <c r="F19">
-        <v>21.30983264517468</v>
+        <v>23.1016759545954</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>15.61386410593209</v>
+        <v>10.30263164454061</v>
       </c>
       <c r="O19">
-        <v>18.42932634707763</v>
+        <v>16.97454820786151</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.40181611141165</v>
+        <v>26.85255718485892</v>
       </c>
       <c r="C20">
-        <v>11.16086122572586</v>
+        <v>18.81988268870229</v>
       </c>
       <c r="D20">
-        <v>3.663315139925944</v>
+        <v>3.409571977001927</v>
       </c>
       <c r="E20">
-        <v>19.82630039271546</v>
+        <v>37.25274560519677</v>
       </c>
       <c r="F20">
-        <v>21.38073884805473</v>
+        <v>23.51165620369923</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>15.59674553471742</v>
+        <v>10.24676683475955</v>
       </c>
       <c r="O20">
-        <v>18.45249803935712</v>
+        <v>17.23127414296533</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.18080883948502</v>
+        <v>28.51620330853175</v>
       </c>
       <c r="C21">
-        <v>11.71519347866379</v>
+        <v>19.90626202643479</v>
       </c>
       <c r="D21">
-        <v>3.697504124719239</v>
+        <v>3.504523238606592</v>
       </c>
       <c r="E21">
-        <v>21.03562066414173</v>
+        <v>39.90439253161743</v>
       </c>
       <c r="F21">
-        <v>21.62694018897354</v>
+        <v>25.00707026347874</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>15.54139120701363</v>
+        <v>10.06368959737469</v>
       </c>
       <c r="O21">
-        <v>18.53799573908935</v>
+        <v>18.15614436761517</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.67077820928148</v>
+        <v>29.56240370350466</v>
       </c>
       <c r="C22">
-        <v>12.06242850951304</v>
+        <v>20.5909096440917</v>
       </c>
       <c r="D22">
-        <v>3.719548642215879</v>
+        <v>3.564982588907871</v>
       </c>
       <c r="E22">
-        <v>21.79072833981449</v>
+        <v>41.60036568546255</v>
       </c>
       <c r="F22">
-        <v>21.79353469548956</v>
+        <v>26.02250762145007</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>15.50682184279566</v>
+        <v>9.947599460112398</v>
       </c>
       <c r="O22">
-        <v>18.59952471419356</v>
+        <v>18.92665192211322</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.41104692461807</v>
+        <v>29.00773292315995</v>
       </c>
       <c r="C23">
-        <v>11.87848722027909</v>
+        <v>20.22779304705237</v>
       </c>
       <c r="D23">
-        <v>3.70781154451398</v>
+        <v>3.532864074306587</v>
       </c>
       <c r="E23">
-        <v>21.39092751753035</v>
+        <v>40.69832738690484</v>
       </c>
       <c r="F23">
-        <v>21.70411604581724</v>
+        <v>25.48208465529085</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>15.52512524655821</v>
+        <v>10.00922483199278</v>
       </c>
       <c r="O23">
-        <v>18.56617170026103</v>
+        <v>18.51648358898859</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.3887661042717</v>
+        <v>26.82466063337148</v>
       </c>
       <c r="C24">
-        <v>11.15154861042544</v>
+        <v>18.80169245131065</v>
       </c>
       <c r="D24">
-        <v>3.6627515063501</v>
+        <v>3.407993957196291</v>
       </c>
       <c r="E24">
-        <v>19.80593700602815</v>
+        <v>37.20872704571341</v>
       </c>
       <c r="F24">
-        <v>21.37681442910545</v>
+        <v>23.48916278552715</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>15.59767746377773</v>
+        <v>10.24981755101334</v>
       </c>
       <c r="O24">
-        <v>18.45119669941386</v>
+        <v>17.21713771014785</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.20659368664019</v>
+        <v>24.28850164543713</v>
       </c>
       <c r="C25">
-        <v>10.30371099249511</v>
+        <v>17.15219419995535</v>
       </c>
       <c r="D25">
-        <v>3.612964612971913</v>
+        <v>3.266862000199948</v>
       </c>
       <c r="E25">
-        <v>17.9437629592119</v>
+        <v>33.26277018965656</v>
       </c>
       <c r="F25">
-        <v>21.04976934090907</v>
+        <v>21.51857495215075</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>15.68286184824613</v>
+        <v>10.52391495628246</v>
       </c>
       <c r="O25">
-        <v>18.35171279602193</v>
+        <v>16.00337541544201</v>
       </c>
     </row>
   </sheetData>
